--- a/Self Learning Test Cases and Results/Keyboard Accessibility Test _ Create an account at Footlocker.com.xlsx
+++ b/Self Learning Test Cases and Results/Keyboard Accessibility Test _ Create an account at Footlocker.com.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>AC1</t>
   </si>
@@ -44,7 +44,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve">Can open chrome browser &amp; type </t>
+      <t xml:space="preserve">Open chrome browser &amp; type </t>
     </r>
     <r>
       <rPr>
@@ -67,30 +67,11 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="10"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Footlocker.com</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> is keyboard accessible</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Navigate the </t>
+      <t xml:space="preserve">Navigate </t>
     </r>
     <r>
       <rPr>
@@ -107,7 +88,7 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> page using only the keyboard shortcut</t>
+      <t xml:space="preserve"> page using keyboard shortcuts</t>
     </r>
   </si>
   <si>
@@ -127,6 +108,14 @@
         <rFont val="Calibri"/>
       </rPr>
       <t>Footlocker.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> successfully using only the keyboard </t>
     </r>
   </si>
   <si>
@@ -177,20 +166,20 @@
         <color indexed="8"/>
         <rFont val="Calibri"/>
       </rPr>
-      <t xml:space="preserve"> &amp; click enter</t>
+      <t xml:space="preserve"> &amp; press enter</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve"> Open Footlocker website</t>
   </si>
   <si>
-    <t>3. Tab to Welcome, Sign In &amp; click enter</t>
+    <t>3. Tab to Welcome, Sign In &amp; press enter</t>
   </si>
   <si>
     <t>Sign in window open</t>
   </si>
   <si>
-    <t>4. Tab to create an account &amp; click enter</t>
+    <t>4. Tab to create an account &amp; press enter</t>
   </si>
   <si>
     <t>Create Account window open</t>
@@ -202,7 +191,7 @@
     <t>Required fields completed</t>
   </si>
   <si>
-    <t>6. Tab to create an account &amp; click enter</t>
+    <t>6. Tab to create an account &amp; press enter</t>
   </si>
   <si>
     <t>Almost Done message displays</t>
@@ -214,7 +203,49 @@
     <t>Go to email to verify and activate your new account</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a Footlocker account with using only my keyboard. </t>
+    <t>8. Add new tab-&gt;browser enter your email account-&gt;press enter-&gt; Sign In to your account</t>
+  </si>
+  <si>
+    <t>Sign in your email account</t>
+  </si>
+  <si>
+    <t>9. Tab to FLX-&gt;enter</t>
+  </si>
+  <si>
+    <t>FLX email open</t>
+  </si>
+  <si>
+    <t>10. Tab to Validate Email -&gt; enter</t>
+  </si>
+  <si>
+    <t>Welcome to FLX window open</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Create an account on </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>footlocker.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> using only my keyboard. </t>
+    </r>
   </si>
   <si>
     <t>Pass</t>
@@ -227,7 +258,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -280,6 +311,12 @@
     <font>
       <sz val="18"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1528,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1588,7 +1625,7 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="s" s="3">
+      <c r="A6" t="s" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
@@ -1597,58 +1634,60 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="s" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="7">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s" s="7">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s" s="7">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s" s="7">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s" s="7">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s" s="7">
+    <row r="9" ht="54.4" customHeight="1">
+      <c r="A9" t="s" s="8">
         <v>11</v>
       </c>
+      <c r="B9" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="9">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
     </row>
-    <row r="10" ht="54.4" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s" s="9">
+    <row r="10" ht="69.55" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="C10" t="s" s="12">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
-    <row r="11" ht="69.55" customHeight="1">
-      <c r="A11" s="11"/>
+    <row r="11" ht="65.5" customHeight="1">
+      <c r="A11" s="13"/>
       <c r="B11" t="s" s="12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s" s="12">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -1656,10 +1695,10 @@
     <row r="12" ht="65.5" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" t="s" s="12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -1667,10 +1706,10 @@
     <row r="13" ht="65.5" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" t="s" s="12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -1678,10 +1717,10 @@
     <row r="14" ht="65.5" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" t="s" s="12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -1689,10 +1728,10 @@
     <row r="15" ht="65.5" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" t="s" s="12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
@@ -1700,16 +1739,38 @@
     <row r="16" ht="65.5" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" t="s" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s" s="14">
         <v>27</v>
       </c>
-      <c r="E16" t="s" s="14">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" ht="65.5" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" t="s" s="12">
         <v>28</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" ht="65.5" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s" s="14">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1718,8 +1779,8 @@
     <hyperlink ref="A4" r:id="rId2" location="" tooltip="" display="Footlocker.com"/>
     <hyperlink ref="A5" r:id="rId3" location="" tooltip="" display="Footlocker.com"/>
     <hyperlink ref="A6" r:id="rId4" location="" tooltip="" display="Footlocker.com"/>
-    <hyperlink ref="A7" r:id="rId5" location="" tooltip="" display="Footlocker.com"/>
-    <hyperlink ref="B11" r:id="rId6" location="" tooltip="" display="footlocker.com"/>
+    <hyperlink ref="B10" r:id="rId5" location="" tooltip="" display="footlocker.com"/>
+    <hyperlink ref="D18" r:id="rId6" location="" tooltip="" display="footlocker.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="86" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
